--- a/TestDate/szyx_api.xlsx
+++ b/TestDate/szyx_api.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20385" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="doctor" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>test_id</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>expect</t>
+  </si>
+  <si>
+    <t>sql</t>
   </si>
   <si>
     <t>医师信息同步</t>
@@ -76,6 +79,9 @@
     <t>success</t>
   </si>
   <si>
+    <t>"select * from user_info where user_name = "武张""</t>
+  </si>
+  <si>
     <t>医师正常状态查询</t>
   </si>
   <si>
@@ -107,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -130,14 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,9 +160,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,8 +173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -186,22 +201,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,20 +220,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -258,8 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,21 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -580,16 +575,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,16 +604,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,116 +625,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,12 +819,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1099,103 +1106,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="12.8916666666667" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="31.8888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="67.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="31.8916666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="67.225" customWidth="1"/>
+    <col min="6" max="6" width="34.5583333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="390" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" ht="390" customHeight="1" spans="1:7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="72" spans="1:6">
-      <c r="A3" s="3">
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="72" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestDate/szyx_api.xlsx
+++ b/TestDate/szyx_api.xlsx
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +137,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,9 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,45 +173,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +241,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -227,45 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +280,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,31 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,109 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +513,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,17 +552,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,36 +586,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +607,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,116 +625,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,9 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,9 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1122,96 +1116,96 @@
     <col min="4" max="4" width="31.8916666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.225" customWidth="1"/>
     <col min="6" max="6" width="34.5583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="390" customHeight="1" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
